--- a/SAE_3_01/fichiers genere/S3AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S3AFA.xlsx
@@ -3306,9 +3306,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -3326,9 +3334,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -3346,10 +3366,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -3366,7 +3394,11 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
@@ -5097,8 +5129,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -5117,9 +5157,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -5137,8 +5185,16 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
@@ -5157,9 +5213,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -5177,7 +5241,11 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
@@ -6888,8 +6956,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -6908,8 +6984,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -6928,9 +7012,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -6948,9 +7040,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -6968,10 +7068,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -6988,10 +7096,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -8679,9 +8795,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8699,10 +8823,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -10470,10 +10602,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -10490,10 +10630,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -12261,10 +12409,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -14052,10 +14208,18 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -14072,10 +14236,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -14092,7 +14264,11 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
@@ -15843,9 +16019,21 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -15863,10 +16051,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -15883,10 +16079,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -15903,10 +16107,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -17634,10 +17846,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -17654,9 +17878,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -17674,8 +17906,16 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
@@ -17694,9 +17934,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -17714,7 +17962,11 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
@@ -19425,10 +19677,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -19445,9 +19709,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -19465,10 +19737,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -21216,8 +21496,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -21236,8 +21524,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -21256,8 +21552,16 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
@@ -21276,9 +21580,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -21296,8 +21608,16 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
@@ -21316,8 +21636,16 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
@@ -21336,7 +21664,11 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
       <c r="D41" s="28" t="n"/>
@@ -23007,8 +23339,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -23027,8 +23367,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -23047,7 +23395,11 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="28" t="n"/>
@@ -23067,8 +23419,16 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
@@ -23087,9 +23447,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -23107,9 +23475,21 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -23127,7 +23507,11 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
       <c r="D41" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S3AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S3AFA.xlsx
@@ -13,13 +13,13 @@
     <sheet name="R3.04 Qualité de développement" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="R3.05 Programmation système" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="R3.06 Architecture des réseaux" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R3.07 SQL dans un langage de programmation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R3.07 SQL dans un langage de pr" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="R3.08 Probabilités" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="R3.09 Cryptographie et sécurité" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R3.10 Management des systèmes d'information " sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R3.11 Droit des contrats et du numérique" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R3.10 Management des systèmes d" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R3.11 Droit des contrats et du " sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="R3.12 Anglais" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R3.13 Communication professionnelle" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R3.13 Communication professionn" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="R3.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
@@ -3276,16 +3276,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3304,21 +3296,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3336,17 +3316,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3364,17 +3336,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3392,16 +3356,8 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -3420,17 +3376,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -3448,21 +3396,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -3480,17 +3416,9 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -3508,11 +3436,7 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
@@ -5111,18 +5035,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5139,21 +5055,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5171,21 +5075,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -5203,22 +5095,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5235,17 +5115,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5263,21 +5135,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -5295,18 +5155,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -5323,11 +5175,7 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
@@ -6946,16 +6794,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6974,17 +6814,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -7002,17 +6834,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -7030,21 +6854,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -7062,17 +6874,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -7090,11 +6894,7 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
@@ -8753,18 +8553,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8781,18 +8573,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8809,18 +8593,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -8837,18 +8613,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8865,18 +8633,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8893,18 +8653,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -8921,18 +8673,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -8949,18 +8693,10 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -8977,18 +8713,10 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -9005,18 +8733,10 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
+      <c r="A44" s="27" t="n"/>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -10592,16 +10312,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -10620,16 +10332,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -10648,21 +10352,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10680,17 +10372,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -10708,18 +10392,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10736,18 +10412,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12403,17 +12071,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12431,18 +12091,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12459,17 +12111,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -14186,18 +13830,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -14214,18 +13850,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -14242,18 +13870,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -14270,18 +13890,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -14298,11 +13910,7 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -15981,16 +15589,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -16009,16 +15609,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -16037,18 +15629,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -16065,18 +15649,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17772,17 +17348,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -17800,18 +17368,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17828,18 +17388,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17856,11 +17408,7 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -19559,17 +19107,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19587,21 +19127,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19619,18 +19147,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19647,18 +19167,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19675,18 +19187,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19703,18 +19207,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -21370,21 +20866,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -21402,18 +20886,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -21430,22 +20906,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -21462,21 +20926,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -21494,16 +20946,8 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -21522,21 +20966,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -21554,11 +20986,7 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
@@ -23197,22 +22625,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -23229,21 +22645,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -23261,18 +22665,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -24988,17 +24384,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -25016,17 +24404,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -25044,18 +24424,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -25072,22 +24444,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -26783,16 +26143,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -26811,21 +26163,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -26843,21 +26183,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -26875,17 +26203,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -26903,17 +26223,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -26931,21 +26243,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -26963,21 +26263,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -26995,17 +26283,9 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -27023,11 +26303,7 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S3AFA.xlsx
@@ -3276,8 +3276,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3296,8 +3304,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -3316,9 +3332,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3336,8 +3360,16 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -3356,9 +3388,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -3376,9 +3416,21 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -3396,9 +3448,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -3416,9 +3476,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -5035,9 +5103,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -5055,9 +5131,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5075,10 +5163,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5095,7 +5191,11 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -6794,8 +6894,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6814,9 +6922,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6834,9 +6950,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6854,8 +6978,16 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -6874,9 +7006,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -6894,7 +7034,11 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
@@ -8553,10 +8697,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8573,10 +8725,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8593,10 +8753,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -8613,10 +8781,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8633,10 +8809,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8653,10 +8837,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -8673,10 +8865,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -8693,10 +8893,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -8713,10 +8921,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -8733,10 +8949,18 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -8753,10 +8977,18 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="n"/>
+      <c r="A45" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="n"/>
+      <c r="D45" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
@@ -8773,10 +9005,18 @@
       <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="n"/>
+      <c r="A46" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B46" s="27" t="n"/>
       <c r="C46" s="27" t="n"/>
-      <c r="D46" s="27" t="n"/>
+      <c r="D46" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="27" t="n"/>
       <c r="F46" s="27" t="n"/>
       <c r="G46" s="27" t="n"/>
@@ -10312,8 +10552,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -10332,8 +10580,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -10352,9 +10608,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10372,9 +10640,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -10392,10 +10668,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10412,10 +10696,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12071,9 +12363,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12091,10 +12391,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12111,9 +12419,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -13830,10 +14146,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -13850,10 +14174,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -15589,10 +15921,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17348,10 +17688,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17368,10 +17716,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17388,7 +17744,11 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
@@ -19107,8 +19467,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -19127,9 +19495,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19147,10 +19527,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19167,10 +19555,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19187,10 +19583,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19207,10 +19611,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -20866,10 +21278,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -20886,9 +21310,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -20906,8 +21338,16 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -20926,9 +21366,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -20946,7 +21398,11 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -22625,10 +23081,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -22645,9 +23113,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -22665,10 +23145,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -24384,9 +24872,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -24404,10 +24900,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -24424,9 +24928,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -24444,10 +24956,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -24464,10 +24984,22 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -26143,8 +26675,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -26163,8 +26703,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -26183,8 +26731,16 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
@@ -26203,9 +26759,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -26223,8 +26787,16 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -26243,8 +26815,16 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
@@ -26263,7 +26843,11 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S3AFA.xlsx
@@ -7,20 +7,20 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R3.01 Développement Web" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R3.02 Développement efficace" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R3.03 Analyse" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R3.04 Qualité de développement" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R3.05 Programmation système" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R3.06 Architecture des réseaux" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R3.07 SQL dans un langage de pr" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R3.08 Probabilités" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R3.09 Cryptographie et sécurité" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R3.10 Management des systèmes d" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R3.11 Droit des contrats et du " sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R3.12 Anglais" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R3.13 Communication professionn" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="R3.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="R3.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R3.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R3.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R3.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R3.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R3.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R3.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R3.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R3.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R3.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R3.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R3.12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R3.13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R3.14" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -3314,7 +3314,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3334,7 +3338,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -3362,15 +3366,15 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="n"/>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3390,15 +3394,15 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -3418,14 +3422,10 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -3450,10 +3450,14 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="n"/>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C41" s="27" t="inlineStr">
         <is>
           <t>TD 2H</t>
@@ -3478,7 +3482,7 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B42" s="27" t="n"/>
@@ -3504,9 +3508,17 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -5105,16 +5117,20 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D35" s="27" t="n"/>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5133,7 +5149,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B36" s="28" t="inlineStr">
@@ -5165,16 +5181,20 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -5193,12 +5213,20 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5215,9 +5243,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5235,9 +5271,21 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -5255,10 +5303,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -5275,7 +5331,11 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
@@ -6988,7 +7048,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -7014,7 +7078,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -7036,11 +7100,15 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -7058,9 +7126,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -10620,7 +10696,7 @@
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -10648,7 +10724,7 @@
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
@@ -12371,7 +12447,7 @@
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -12427,7 +12503,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -13409,7 +13485,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -14151,11 +14227,15 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="B35" s="28" t="n"/>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 6H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -14179,11 +14259,15 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="B36" s="28" t="n"/>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -14202,10 +14286,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -14222,10 +14314,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -14242,7 +14342,11 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -15923,16 +16027,16 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -15949,9 +16053,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -15969,9 +16085,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -15989,10 +16113,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -16009,10 +16141,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -17690,16 +17830,20 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -17718,16 +17862,16 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -17746,12 +17890,16 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17768,10 +17916,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17788,7 +17944,11 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -18730,7 +18890,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -19469,7 +19629,7 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B35" s="28" t="inlineStr">
@@ -19497,7 +19657,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B36" s="28" t="inlineStr">
@@ -19507,7 +19667,7 @@
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D36" s="27" t="n"/>
@@ -19529,16 +19689,20 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19557,14 +19721,14 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -19585,14 +19749,14 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E39" s="27" t="n"/>
@@ -19613,14 +19777,14 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E40" s="27" t="n"/>
@@ -19639,10 +19803,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -21280,7 +21452,7 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="B35" s="28" t="inlineStr">
@@ -21288,12 +21460,12 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -21312,16 +21484,16 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -21340,7 +21512,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B37" s="28" t="inlineStr">
@@ -21349,7 +21521,11 @@
         </is>
       </c>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -21368,7 +21544,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B38" s="27" t="inlineStr">
@@ -21400,10 +21576,14 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="n"/>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -21422,9 +21602,21 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -21442,7 +21634,11 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
@@ -23094,7 +23290,7 @@
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -23154,7 +23350,7 @@
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -24909,7 +25105,7 @@
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -24936,7 +25132,7 @@
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D37" s="27" t="n"/>
@@ -24965,7 +25161,7 @@
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -24992,7 +25188,7 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D39" s="27" t="inlineStr">
@@ -26713,7 +26909,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -26741,7 +26941,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -26761,7 +26965,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -26789,15 +26993,15 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C39" s="27" t="n"/>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -26817,7 +27021,7 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B40" s="27" t="inlineStr">
@@ -26825,7 +27029,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -26845,11 +27053,19 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -26867,9 +27083,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -26887,7 +27111,11 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3AFA.xlsx
+++ b/SAE_3_01/fichiers genere/S3AFA.xlsx
@@ -3376,7 +3376,11 @@
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
@@ -3520,7 +3524,11 @@
         </is>
       </c>
       <c r="D43" s="27" t="n"/>
-      <c r="E43" s="27" t="n"/>
+      <c r="E43" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
       <c r="H43" s="27" t="n"/>
@@ -5339,7 +5347,11 @@
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
-      <c r="E42" s="27" t="n"/>
+      <c r="E42" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
       <c r="H42" s="27" t="n"/>
@@ -7138,7 +7150,11 @@
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -13485,7 +13501,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -14350,7 +14366,11 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -17952,7 +17972,11 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -18890,7 +18914,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -19815,7 +19839,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -21642,7 +21670,11 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -23353,7 +23385,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -25196,7 +25232,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -27003,7 +27043,11 @@
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -27119,7 +27163,11 @@
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
-      <c r="E43" s="27" t="n"/>
+      <c r="E43" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
       <c r="H43" s="27" t="n"/>
